--- a/Vodovoz/Reports/Logistic/CarsExploitationReport-ConditionalFormatting.xlsx
+++ b/Vodovoz/Reports/Logistic/CarsExploitationReport-ConditionalFormatting.xlsx
@@ -434,7 +434,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="4:4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.37109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.3828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.71"/>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="85.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
